--- a/Data/g7.2.xlsx
+++ b/Data/g7.2.xlsx
@@ -1,37 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E706F5-C018-4B18-A909-728856FDEBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Residencial</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>31/12/2015</t>
+  </si>
+  <si>
+    <t>31/12/2016</t>
+  </si>
+  <si>
+    <t>31/12/2017</t>
+  </si>
+  <si>
+    <t>31/12/2018</t>
+  </si>
+  <si>
+    <t>31/12/2019</t>
+  </si>
+  <si>
+    <t>31/12/2020</t>
+  </si>
+  <si>
+    <t>31/12/2021</t>
+  </si>
+  <si>
+    <t>31/12/2022</t>
+  </si>
+  <si>
+    <t>31/12/2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +100,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,196 +424,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Residencial</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Industrial</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Comercial</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.176386279560739</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-5.738829677249568</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.681520381806045</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.8904187235270422</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3.1763862795607389</v>
+      </c>
+      <c r="C2">
+        <v>-5.7388296772495684</v>
+      </c>
+      <c r="D2">
+        <v>1.6815203818060449</v>
+      </c>
+      <c r="E2">
+        <v>-0.89041872352704221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>1.911922058906335</v>
       </c>
-      <c r="C3" t="n">
-        <v>-6.921123652268713</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.01345849735875371</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3">
+        <v>-6.9211236522687134</v>
+      </c>
+      <c r="D3">
+        <v>-1.3458497358753711E-2</v>
+      </c>
+      <c r="E3">
         <v>-1.643720949578342</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>-1.008482303207803</v>
       </c>
-      <c r="C4" t="n">
-        <v>-7.46504220644737</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.7083487566039715</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4">
+        <v>-7.4650422064473698</v>
+      </c>
+      <c r="D4">
+        <v>-0.70834875660397145</v>
+      </c>
+      <c r="E4">
         <v>-3.06486270757732</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.382829072234017</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>3.3828290722340171</v>
+      </c>
+      <c r="C5">
         <v>-3.724541378219226</v>
       </c>
-      <c r="D5" t="n">
-        <v>6.300306712080372</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.002688428578048</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="D5">
+        <v>6.3003067120803724</v>
+      </c>
+      <c r="E5">
+        <v>2.0026884285780482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>9.159467242620579</v>
       </c>
-      <c r="C6" t="n">
-        <v>-13.15702982837264</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.280180453045546</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.6540996840433855</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5.685996471499943</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-3.547362785459762</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C6">
+        <v>-13.157029828372639</v>
+      </c>
+      <c r="D6">
+        <v>4.2801804530455456</v>
+      </c>
+      <c r="E6">
+        <v>-0.65409968404338548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>5.6859964714999434</v>
+      </c>
+      <c r="C7">
+        <v>-3.5473627854597618</v>
+      </c>
+      <c r="D7">
         <v>-12.06585544820839</v>
       </c>
-      <c r="E7" t="n">
-        <v>-2.001587493777846</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.982955653496622</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="E7">
+        <v>-2.0015874937778459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2.9829556534966222</v>
+      </c>
+      <c r="C8">
         <v>13.81075882133389</v>
       </c>
-      <c r="D8" t="n">
-        <v>5.156198390209132</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.356118347354323</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.118778357660632</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="D8">
+        <v>5.1561983902091324</v>
+      </c>
+      <c r="E8">
+        <v>6.3561183473543226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1.1187783576606321</v>
+      </c>
+      <c r="C9">
         <v>-3.480432552429336</v>
       </c>
-      <c r="D9" t="n">
-        <v>2.876556068045422</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.5813623291667347</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8.648948283094636</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.09321937917635692</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.210721689244567</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D9">
+        <v>2.8765560680454221</v>
+      </c>
+      <c r="E9">
+        <v>-0.58136232916673469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>8.6489482830946365</v>
+      </c>
+      <c r="C10">
+        <v>-9.321937917635692E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.2107216892445671</v>
+      </c>
+      <c r="E10">
         <v>3.742528186459082</v>
       </c>
     </row>

--- a/Data/g7.2.xlsx
+++ b/Data/g7.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E706F5-C018-4B18-A909-728856FDEBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CEC2A8-E495-4BFF-B8CA-30CF22726D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Ano</t>
   </si>
@@ -35,33 +35,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>31/12/2015</t>
-  </si>
-  <si>
-    <t>31/12/2016</t>
-  </si>
-  <si>
-    <t>31/12/2017</t>
-  </si>
-  <si>
-    <t>31/12/2018</t>
-  </si>
-  <si>
-    <t>31/12/2019</t>
-  </si>
-  <si>
-    <t>31/12/2020</t>
-  </si>
-  <si>
-    <t>31/12/2021</t>
-  </si>
-  <si>
-    <t>31/12/2022</t>
-  </si>
-  <si>
-    <t>31/12/2023</t>
   </si>
 </sst>
 </file>
@@ -118,11 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,6 +404,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -449,8 +426,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2" s="2">
+        <v>2015</v>
       </c>
       <c r="B2">
         <v>3.1763862795607389</v>
@@ -466,8 +443,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="2">
+        <v>2016</v>
       </c>
       <c r="B3">
         <v>1.911922058906335</v>
@@ -483,8 +460,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4" s="2">
+        <v>2017</v>
       </c>
       <c r="B4">
         <v>-1.008482303207803</v>
@@ -500,8 +477,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="2">
+        <v>2018</v>
       </c>
       <c r="B5">
         <v>3.3828290722340171</v>
@@ -517,8 +494,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="A6" s="2">
+        <v>2019</v>
       </c>
       <c r="B6">
         <v>9.159467242620579</v>
@@ -534,8 +511,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
+      <c r="A7" s="2">
+        <v>2020</v>
       </c>
       <c r="B7">
         <v>5.6859964714999434</v>
@@ -551,8 +528,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="A8" s="2">
+        <v>2021</v>
       </c>
       <c r="B8">
         <v>2.9829556534966222</v>
@@ -568,8 +545,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
+      <c r="A9" s="2">
+        <v>2022</v>
       </c>
       <c r="B9">
         <v>1.1187783576606321</v>
@@ -585,8 +562,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
+      <c r="A10" s="2">
+        <v>2023</v>
       </c>
       <c r="B10">
         <v>8.6489482830946365</v>

--- a/Data/g7.2.xlsx
+++ b/Data/g7.2.xlsx
@@ -1,64 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CEC2A8-E495-4BFF-B8CA-30CF22726D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>Residencial</t>
-  </si>
-  <si>
-    <t>Industrial</t>
-  </si>
-  <si>
-    <t>Comercial</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -398,183 +420,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ano</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Residencial</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Industrial</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>2015</v>
       </c>
-      <c r="B2">
-        <v>3.1763862795607389</v>
-      </c>
-      <c r="C2">
-        <v>-5.7388296772495684</v>
-      </c>
-      <c r="D2">
-        <v>1.6815203818060449</v>
-      </c>
-      <c r="E2">
-        <v>-0.89041872352704221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B2" t="n">
+        <v>3.176386279560739</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.738829677249568</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.681520381806045</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.8904187235270422</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2016</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1.911922058906335</v>
       </c>
-      <c r="C3">
-        <v>-6.9211236522687134</v>
-      </c>
-      <c r="D3">
-        <v>-1.3458497358753711E-2</v>
-      </c>
-      <c r="E3">
+      <c r="C3" t="n">
+        <v>-6.921123652268713</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.01345849735875371</v>
+      </c>
+      <c r="E3" t="n">
         <v>-1.643720949578342</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" t="n">
         <v>2017</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>-1.008482303207803</v>
       </c>
-      <c r="C4">
-        <v>-7.4650422064473698</v>
-      </c>
-      <c r="D4">
-        <v>-0.70834875660397145</v>
-      </c>
-      <c r="E4">
+      <c r="C4" t="n">
+        <v>-7.46504220644737</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.7083487566039715</v>
+      </c>
+      <c r="E4" t="n">
         <v>-3.06486270757732</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" t="n">
         <v>2018</v>
       </c>
-      <c r="B5">
-        <v>3.3828290722340171</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>3.382829072234017</v>
+      </c>
+      <c r="C5" t="n">
         <v>-3.724541378219226</v>
       </c>
-      <c r="D5">
-        <v>6.3003067120803724</v>
-      </c>
-      <c r="E5">
-        <v>2.0026884285780482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="D5" t="n">
+        <v>6.300306712080372</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.002688428578048</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>2019</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>9.159467242620579</v>
       </c>
-      <c r="C6">
-        <v>-13.157029828372639</v>
-      </c>
-      <c r="D6">
-        <v>4.2801804530455456</v>
-      </c>
-      <c r="E6">
-        <v>-0.65409968404338548</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="C6" t="n">
+        <v>-13.15702982837264</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.280180453045546</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.6540996840433855</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>2020</v>
       </c>
-      <c r="B7">
-        <v>5.6859964714999434</v>
-      </c>
-      <c r="C7">
-        <v>-3.5473627854597618</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="n">
+        <v>5.685996471499943</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.547362785459762</v>
+      </c>
+      <c r="D7" t="n">
         <v>-12.06585544820839</v>
       </c>
-      <c r="E7">
-        <v>-2.0015874937778459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="E7" t="n">
+        <v>-2.001587493777846</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>2021</v>
       </c>
-      <c r="B8">
-        <v>2.9829556534966222</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>2.982955653496622</v>
+      </c>
+      <c r="C8" t="n">
         <v>13.81075882133389</v>
       </c>
-      <c r="D8">
-        <v>5.1561983902091324</v>
-      </c>
-      <c r="E8">
-        <v>6.3561183473543226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="D8" t="n">
+        <v>5.156198390209132</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.356118347354323</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>2022</v>
       </c>
-      <c r="B9">
-        <v>1.1187783576606321</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>1.118778357660632</v>
+      </c>
+      <c r="C9" t="n">
         <v>-3.480432552429336</v>
       </c>
-      <c r="D9">
-        <v>2.8765560680454221</v>
-      </c>
-      <c r="E9">
-        <v>-0.58136232916673469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="D9" t="n">
+        <v>2.876556068045422</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.5813623291667347</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>2023</v>
       </c>
-      <c r="B10">
-        <v>8.6489482830946365</v>
-      </c>
-      <c r="C10">
-        <v>-9.321937917635692E-2</v>
-      </c>
-      <c r="D10">
-        <v>3.2107216892445671</v>
-      </c>
-      <c r="E10">
+      <c r="B10" t="n">
+        <v>8.648948283094636</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.09321937917635692</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.210721689244567</v>
+      </c>
+      <c r="E10" t="n">
         <v>3.742528186459082</v>
       </c>
     </row>

--- a/Data/g7.2.xlsx
+++ b/Data/g7.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,155 +462,223 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B2" t="n">
-        <v>3.176386279560739</v>
+        <v>4.27786820933802</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.738829677249568</v>
+        <v>1.74098131566689</v>
       </c>
       <c r="D2" t="n">
-        <v>1.681520381806045</v>
+        <v>8.629802168417978</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8904187235270422</v>
+        <v>4.263876093965924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B3" t="n">
-        <v>1.911922058906335</v>
+        <v>9.964512723760755</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.921123652268713</v>
+        <v>3.615055418131874</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01345849735875371</v>
+        <v>7.030769230769218</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.643720949578342</v>
+        <v>5.601221522430011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.008482303207803</v>
+        <v>5.456550822618689</v>
       </c>
       <c r="C4" t="n">
-        <v>-7.46504220644737</v>
+        <v>-2.054079929300867</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7083487566039715</v>
+        <v>5.036294379761408</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.06486270757732</v>
+        <v>1.483826940022026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>3.382829072234017</v>
+        <v>3.176386279560739</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.724541378219226</v>
+        <v>-5.738829677249568</v>
       </c>
       <c r="D5" t="n">
-        <v>6.300306712080372</v>
+        <v>1.681520381806045</v>
       </c>
       <c r="E5" t="n">
-        <v>2.002688428578048</v>
+        <v>-0.8904187235270422</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>9.159467242620579</v>
+        <v>1.911922058906335</v>
       </c>
       <c r="C6" t="n">
-        <v>-13.15702982837264</v>
+        <v>-6.921123652268713</v>
       </c>
       <c r="D6" t="n">
-        <v>4.280180453045546</v>
+        <v>-0.01345849735875371</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.6540996840433855</v>
+        <v>-1.643720949578342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>5.685996471499943</v>
+        <v>-1.008482303207803</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.547362785459762</v>
+        <v>-7.46504220644737</v>
       </c>
       <c r="D7" t="n">
-        <v>-12.06585544820839</v>
+        <v>-0.7083487566039715</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.001587493777846</v>
+        <v>-3.06486270757732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>2.982955653496622</v>
+        <v>3.382829072234017</v>
       </c>
       <c r="C8" t="n">
-        <v>13.81075882133389</v>
+        <v>-3.724541378219226</v>
       </c>
       <c r="D8" t="n">
-        <v>5.156198390209132</v>
+        <v>6.300306712080372</v>
       </c>
       <c r="E8" t="n">
-        <v>6.356118347354323</v>
+        <v>2.002688428578048</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B9" t="n">
-        <v>1.118778357660632</v>
+        <v>9.159467242620579</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.480432552429336</v>
+        <v>-12.8307694774223</v>
       </c>
       <c r="D9" t="n">
-        <v>2.876556068045422</v>
+        <v>4.280180453045546</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5813623291667347</v>
+        <v>-0.5450385189066043</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.685996471499943</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.908369428274527</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-12.06585544820839</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.109051424086783</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.982955653496622</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.81075882133389</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.156198390209132</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.356118347354323</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.118778357660632</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-3.480432552429336</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.876556068045422</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.5813623291667347</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>2023</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
         <v>8.648948283094636</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>-0.09321937917635692</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D13" t="n">
         <v>3.210721689244567</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E13" t="n">
         <v>3.742528186459082</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10.88236510803766</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.43601102235864</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.550204742553767</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.120555056354159</v>
       </c>
     </row>
   </sheetData>
